--- a/Data/RawData/YPE_Data/YPE_5/DigitalData_YPE5/YPE_PILAdata_Plot_5.xlsx
+++ b/Data/RawData/YPE_Data/YPE_5/DigitalData_YPE5/YPE_PILAdata_Plot_5.xlsx
@@ -216,7 +216,7 @@
     <t>66SI</t>
   </si>
   <si>
-    <t>0243876</t>
+    <t>0254106</t>
   </si>
   <si>
     <t>high</t>
@@ -747,13 +747,13 @@
         <v>65</v>
       </c>
       <c r="G2" s="4">
-        <v>251.0</v>
+        <v>259.0</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="4">
-        <v>4204384.0</v>
+        <v>4193103.0</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>62</v>
